--- a/data_prng/PRNG_egzonimy_panstwo.xlsx
+++ b/data_prng/PRNG_egzonimy_panstwo.xlsx
@@ -880,7 +880,7 @@
     <t xml:space="preserve">Księstwo Monako</t>
   </si>
   <si>
-    <t xml:space="preserve">43°44'20″ N, 7°25'30″ E</t>
+    <t xml:space="preserve">43°44'20'' N, 7°25'30'' E</t>
   </si>
   <si>
     <t xml:space="preserve">nieodmienny</t>
@@ -1216,7 +1216,7 @@
     <t xml:space="preserve">Państwo Watykańskie</t>
   </si>
   <si>
-    <t xml:space="preserve">41°54'10″ N, 12°27'10″ E</t>
+    <t xml:space="preserve">41°54'10'' N, 12°27'10'' E</t>
   </si>
   <si>
     <t xml:space="preserve">Watykanu</t>
@@ -4933,7 +4933,7 @@
     <t xml:space="preserve">Republika Surinamu</t>
   </si>
   <si>
-    <t xml:space="preserve">4°00'00' N, 56°00'00' W</t>
+    <t xml:space="preserve">4°00'00'' N, 56°00'00'' W</t>
   </si>
   <si>
     <t xml:space="preserve">Surinamu</t>
@@ -5374,6 +5374,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5457,11 +5458,11 @@
   </sheetPr>
   <dimension ref="A1:AE196"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P1" activeCellId="3" sqref="P2:P45 P47:P107 P109:P196 P1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H163" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P196" activeCellId="0" sqref="P196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.8"/>
   </cols>
